--- a/git_v2/체크리스트.xlsx
+++ b/git_v2/체크리스트.xlsx
@@ -1,98 +1,879 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.0"/>
-  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\사용자\Desktop\강의자료\Git 지옥에서 온 관리자\git_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="24375" windowHeight="10215" tabRatio="500"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-  </x:sheets>
-  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
-</x:workbook>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8DDA25-3C9E-4D17-BAB6-6C2A24EEA753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="315" yWindow="180" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+  <si>
+    <t>Git 배경지식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Github 이해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전관리 시스템 이해 및 실습</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>챕터 정리 (블로깅)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Git 원리(3가지 영역) 이해  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git 기본기 이해 (init, add, commit)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연습문제 및 실습</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git Reset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git Branch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastForwardMerge, 3 Way Merge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git Rebase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH05 Github 활용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git push</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git pull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git fetch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git Clone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git SSH 아이디 두개 사용하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git Merge 협업 (Github 충돌해결)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git Rebase Merge 협업 (Local 충돌해결)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH01 버전관리시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH02 분산버전관리시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH03 Git 기본 명령어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH04 Git 고급 명령어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH06 팀원과 협업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강의 상세 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Git] 00강 - 시작하기전 읽어보기</t>
+  </si>
+  <si>
+    <t>[Git] 01강 - 역사 및 배경지식</t>
+  </si>
+  <si>
+    <t>[Git] 02강 - GitHub 이야기</t>
+  </si>
+  <si>
+    <t>[Git] 03강 - Git 설치 및 GitHub 회원가입</t>
+  </si>
+  <si>
+    <t>[Git] 04강 - 버전 관리 시스템이란</t>
+  </si>
+  <si>
+    <t>[Git] 05강 - 분산 버전 관리 시스템이란</t>
+  </si>
+  <si>
+    <t>[Git] 06강 - Git 원리</t>
+  </si>
+  <si>
+    <t>[Git] 07강 - Git 기본기 실습 첫번째(형상관리)</t>
+  </si>
+  <si>
+    <t>[Git] 08강 - Git 기본기 실습 두번째</t>
+  </si>
+  <si>
+    <t>[Git] 09강 - Git 기본기 실습 세번째</t>
+  </si>
+  <si>
+    <t>[Git] 10강 - Git Reset 명령어</t>
+  </si>
+  <si>
+    <t>[Git] 11강 - Git 최종 로그 변경하기</t>
+  </si>
+  <si>
+    <t>[Git] 12강 - Git branch 기본개념</t>
+  </si>
+  <si>
+    <t>[Git] 13강 - 브랜치 포인트 이해하기</t>
+  </si>
+  <si>
+    <t>[Git] 14강 - fast forward 실습</t>
+  </si>
+  <si>
+    <t>[Git] 15강 - 3-way merge 실습</t>
+  </si>
+  <si>
+    <t>[Git] 16강 - merge 충돌해결</t>
+  </si>
+  <si>
+    <t>[Git] 17강 - rebase로 로그관리</t>
+  </si>
+  <si>
+    <t>[Git] 18강 - git stash</t>
+  </si>
+  <si>
+    <t>[Git] 19강 - 협업 컨벤션 만들기</t>
+  </si>
+  <si>
+    <t>[Git] 20강 - 소규모 협업하기 시나리오 1편</t>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭(번호)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실습내용 검토 및 추가필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="1">
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0" iLevel="0"/>
-  </x:cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+  </fonts>
+  <fills count="5">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="13">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F4D7AD62-C4B0-4C6F-B3A4-CE57A2C02CE6}" name="표4" displayName="표4" ref="Q3:Q30" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="Q3:Q30" xr:uid="{F4D7AD62-C4B0-4C6F-B3A4-CE57A2C02CE6}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{6D63CEB4-A6C7-4645-9AD2-B75F7ECB910B}" name="매칭(번호)" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altText="Table1"/>
+    </ext>
+  </extLst>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="3a3c84"/>
+        <a:srgbClr val="3A3C84"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="faf3db"/>
+        <a:srgbClr val="FAF3DB"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="6182d6"/>
+        <a:srgbClr val="6182D6"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ff843a"/>
+        <a:srgbClr val="FF843A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="b2b2b2"/>
+        <a:srgbClr val="B2B2B2"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffd700"/>
+        <a:srgbClr val="FFD700"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="289b6e"/>
+        <a:srgbClr val="289B6E"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="9d5cbb"/>
+        <a:srgbClr val="9D5CBB"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -110,7 +891,7 @@
         <a:cs typeface="HNC_GO_B_HINT_GS"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -306,18 +1087,934 @@
       <a:lstStyle/>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetData/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B3:V30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="11.5" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="18">
+        <f>B5</f>
+        <v>2</v>
+      </c>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="18">
+        <f>B6</f>
+        <v>3</v>
+      </c>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="18">
+        <f>B8</f>
+        <v>5</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="J8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="18">
+        <f>B10</f>
+        <v>7</v>
+      </c>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="18" t="str">
+        <f>B11 &amp; ", " &amp; B12 &amp; ", " &amp; B13</f>
+        <v>8, 9, 10</v>
+      </c>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="J12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="18">
+        <f>B14</f>
+        <v>11</v>
+      </c>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>10</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="18" t="str">
+        <f>B16 &amp; ", " &amp;B17</f>
+        <v>13, 14</v>
+      </c>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>11</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="18" t="str">
+        <f>B18 &amp; ", " &amp;B19</f>
+        <v>15, 16</v>
+      </c>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B15" s="9">
+        <v>12</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>13</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="27"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="9">
+        <v>14</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="J17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="18">
+        <f>B21</f>
+        <v>18</v>
+      </c>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="9">
+        <v>15</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="18">
+        <f>B22</f>
+        <v>19</v>
+      </c>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="9">
+        <v>16</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="9">
+        <v>17</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="9">
+        <v>18</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="J21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="9">
+        <v>19</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23" s="9">
+        <v>20</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B24" s="9">
+        <v>21</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B25" s="9">
+        <v>22</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B26" s="9">
+        <v>23</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="J26" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="23"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B27" s="9">
+        <v>24</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B28" s="9">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B29" s="9">
+        <v>26</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B30" s="9">
+        <v>27</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L7"/>
+    <mergeCell ref="J8:L11"/>
+    <mergeCell ref="J12:L16"/>
+    <mergeCell ref="J17:L20"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="J21:L25"/>
+    <mergeCell ref="J26:L30"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B4:B30">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>ISNUMBER(MATCH(B4, $Q$4:$Q$21, 0))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>OR( ISNUMBER(SEARCH(B4, $Q$4)), ISNUMBER(SEARCH(B4, $Q$5)), ISNUMBER(SEARCH(B4, $Q$6)), ISNUMBER(SEARCH(B4, $Q$7)), ISNUMBER(SEARCH(B4, $Q$8)), ISNUMBER(SEARCH(B4, $Q$9)), ISNUMBER(SEARCH(B4, $Q$10)), ISNUMBER(SEARCH(B4, $Q$11)), ISNUMBER(SEARCH(B4, $Q$12)), ISNUMBER(SEARCH(B4, $Q$13)), ISNUMBER(SEARCH(B4, $Q$14)), ISNUMBER(SEARCH(B4, $Q$15)), ISNUMBER(SEARCH(B4, $Q$16)), ISNUMBER(SEARCH(B4, $Q$17)), ISNUMBER(SEARCH(B4, $Q$18)), ISNUMBER(SEARCH(B4, $Q$19)), ISNUMBER(SEARCH(B4, $Q$20)), ISNUMBER(SEARCH(B4, $Q$21)), ISNUMBER(SEARCH(B4, $Q$22)), ISNUMBER(SEARCH(B4, $Q$23)), ISNUMBER(SEARCH(B4, $Q$24)), ISNUMBER(SEARCH(B4, $Q$25)), ISNUMBER(SEARCH(B4, $Q$26)), ISNUMBER(SEARCH(B4, $Q$27)), ISNUMBER(SEARCH(B4, $Q$28)), ISNUMBER(SEARCH(B4, $Q$29)), ISNUMBER(SEARCH(B4, $Q$30)) )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>